--- a/GC_VR_MiSeq_2021/Sites_and_Samples/eDNA Site Data.xlsx
+++ b/GC_VR_MiSeq_2021/Sites_and_Samples/eDNA Site Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredfreedman/Research/eDNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredfreedman/Research/git/edna_metabarcoding/GC_VR_MiSeq_2021/Sites_and_Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C12399F-F507-E84C-909D-FF3DBF83117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75F4D8-1E04-CC43-9FD8-59910FB64E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="500" windowWidth="25120" windowHeight="20500" activeTab="4" xr2:uid="{764313FB-7EAC-634B-AB97-E929A0701C86}"/>
+    <workbookView xWindow="10720" yWindow="500" windowWidth="25120" windowHeight="20500" activeTab="5" xr2:uid="{764313FB-7EAC-634B-AB97-E929A0701C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Everything" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Grand Canyon Sites" sheetId="6" r:id="rId3"/>
     <sheet name="GC Trib Sites" sheetId="4" r:id="rId4"/>
     <sheet name="GC Mainstem Sites" sheetId="5" r:id="rId5"/>
-    <sheet name="Wilderness Canyon" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Wilderness Canyon" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7312" uniqueCount="543">
   <si>
     <t>State</t>
   </si>
@@ -1654,6 +1655,21 @@
   </si>
   <si>
     <t>CR.275</t>
+  </si>
+  <si>
+    <t>RM.20 1</t>
+  </si>
+  <si>
+    <t>RM.88 1</t>
+  </si>
+  <si>
+    <t>CR.134 1</t>
+  </si>
+  <si>
+    <t>CR.143 1</t>
+  </si>
+  <si>
+    <t>CR.204 1</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1751,11 +1767,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30432,7 +30454,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="A1:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30447,1711 +30469,1842 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>-15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="18">
         <v>44271</v>
       </c>
-      <c r="J2" s="5">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="19">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="20">
         <v>5.5555555555555558E-3</v>
       </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <v>-14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="18">
         <v>44271</v>
       </c>
-      <c r="J3" s="5">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="19">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="20">
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="16">
         <v>20.7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="18">
         <v>44296</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
         <v>36.630398</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="16">
         <v>-111.763992</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="J4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="16">
         <v>9.1</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="16">
         <v>7.5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="16">
         <v>806</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>52.5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="22">
         <v>44297</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="16">
         <v>36.307026</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="16">
         <v>-111.857844</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="J5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>52.5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="22">
         <v>44297</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="16">
         <v>36.306781999999998</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="16">
         <v>-111.85848</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="J6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="20">
         <v>6.2499999999999995E-3</v>
       </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>61.7</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="18">
         <v>44298</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="16">
         <v>36.195366</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="16">
         <v>-111.799632</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="J7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="16">
         <v>61.7</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="18">
         <v>44298</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="16">
         <v>36.190340999999997</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="16">
         <v>-111.795906</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="J8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
         <v>84.7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="18">
         <v>44299</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="16">
         <v>36.081918999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="16">
         <v>-112.036006</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="J9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>84.7</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="18">
         <v>44299</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
         <v>36.082434999999997</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="16">
         <v>-112.035736</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="J10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>88.1</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="18">
         <v>44299</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="16">
         <v>36.100304999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="16">
         <v>-112.091992</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="J11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="16">
         <v>88.2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="18">
         <v>44299</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="16">
         <v>36.100451999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="16">
         <v>-112.090951</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="J12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="16">
         <v>94.5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="18">
         <v>44300</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="16">
         <v>36.099469999999997</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="23">
         <v>-112.20886900000001</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
+      <c r="J13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
         <v>94.5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="18">
         <v>44300</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="16">
         <v>36.098798000000002</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="23">
         <v>-112.20999500000001</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
+      <c r="J14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="16">
         <v>97.1</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="18">
         <v>44300</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="16">
         <v>36.115372000000001</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="23">
         <v>-112.231348</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M15">
+      <c r="J15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M15" s="16">
         <v>17.100000000000001</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="16">
         <v>7.5</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="16">
         <v>790</v>
       </c>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="16">
         <v>97.2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="18">
         <v>44300</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="16">
         <v>36.114659000000003</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="23">
         <v>-112.230352</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="J16" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="16">
         <v>109.2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="18">
         <v>44301</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="16">
         <v>36.237012</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="23">
         <v>-112.348043</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="J17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="16">
         <v>109.2</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="18">
         <v>44301</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="16">
         <v>36.237662999999998</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="23">
         <v>-112.349253</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="J18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="16">
         <v>134.4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="18">
         <v>44301</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="16">
         <v>36.371082000000001</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="23">
         <v>-112.469666</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M19">
+      <c r="J19" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M19" s="16">
         <v>13.4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="16">
         <v>7.5</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="16">
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
         <v>134.69999999999999</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="18">
         <v>44301</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="23">
         <v>36.370539999999998</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="23">
         <v>-112.468861</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="J20" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <v>143.9</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="18">
         <v>44301</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="23">
         <v>36.391506</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="23">
         <v>-112.629231</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="J21" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <v>144</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="18">
         <v>44301</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="23">
         <v>36.392344000000001</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="23">
         <v>-112.632828</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M22">
+      <c r="J22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M22" s="16">
         <v>18.3</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="16">
         <v>7.5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="16">
         <v>1244</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
         <v>148.4</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="18">
         <v>44302</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="23">
         <v>36.343699000000001</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="23">
         <v>-112.674443</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="J23" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="16">
         <v>148.4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="18">
         <v>44302</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="23">
         <v>36.343699000000001</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="23">
         <v>-112.674443</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M24">
+      <c r="J24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16">
         <v>13.1</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="16">
         <v>7.5</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="16">
         <v>1507</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="16">
         <v>157.1</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="18">
         <v>44302</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="23">
         <v>36.308889999999998</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="23">
         <v>-112.76296600000001</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="J25" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="16">
         <v>157.30000000000001</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="18">
         <v>44302</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="23">
         <v>36.306596999999996</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="23">
         <v>-112.761515</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>511</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="J26" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="16">
         <v>179.7</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="18">
         <v>44303</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="23">
         <v>36.196297000000001</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="23">
         <v>-113.084915</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" t="s">
-        <v>163</v>
-      </c>
-      <c r="L27" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M27">
+      <c r="J27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M27" s="16">
         <v>25.1</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="16">
         <v>7</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="16">
         <v>999</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="16">
         <v>179.9</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="18">
         <v>44303</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="23">
         <v>36.196154</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="23">
         <v>-113.086461</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="J28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="16">
         <v>204.6</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="18">
         <v>44303</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="23">
         <v>36.019364000000003</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="23">
         <v>-113.350139</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="J29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="16">
         <v>204.6</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="18">
         <v>44303</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="23">
         <v>36.018689000000002</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="23">
         <v>-113.351472</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="J30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M30" s="16">
         <v>24.7</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="16">
         <v>8</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="16">
         <v>589</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="16">
         <v>216</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="18">
         <v>44304</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="16">
         <v>216</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="18">
         <v>44304</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="23">
         <v>35.885708000000001</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="23">
         <v>-113.308258</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" t="s">
-        <v>163</v>
-      </c>
-      <c r="L32" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M32">
+      <c r="J32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M32" s="16">
         <v>20.6</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="16">
         <v>7.5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="16">
         <v>737</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="16">
         <v>225.9</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="18">
         <v>44273</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="24">
         <v>35.765999999999998</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="16">
         <v>-113.37402</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="19">
         <v>1</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="20">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="16">
         <v>225.9</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="18">
         <v>44305</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="16">
         <v>35.766888000000002</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="16">
         <v>-113.372191</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="J34" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="16">
         <v>225.9</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="22">
         <v>44273</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="24">
         <v>35.765160000000002</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="16">
         <v>-113.37236</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="19">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="20">
         <v>9.0277777777777787E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="16">
         <v>225.9</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="18">
         <v>44305</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="16">
         <v>35.765225000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="16">
         <v>-113.37134399999999</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K36" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M36" s="5">
+      <c r="J36" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M36" s="19">
         <v>17</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="16">
         <v>842</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="16">
         <v>229.3</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="18">
         <v>44305</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="16">
         <v>35.751103999999998</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="16">
         <v>-113.424109</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" t="s">
-        <v>163</v>
-      </c>
-      <c r="L37" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M37">
+      <c r="J37" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M37" s="16">
         <v>13.8</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="16">
         <v>6.5</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="16">
         <v>906</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="16">
         <v>229.3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="18">
         <v>44305</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="16">
         <v>35.750768999999998</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="16">
         <v>-113.42432100000001</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" t="s">
-        <v>163</v>
-      </c>
-      <c r="L38" s="7">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M38">
+      <c r="J38" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M38" s="16">
         <v>18.100000000000001</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="16">
         <v>8</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="16">
         <v>950</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="16">
         <v>246.2</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="18">
         <v>44305</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="16">
         <v>35.823433000000001</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="16">
         <v>-113.64673000000001</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L39" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M39" s="13">
+      <c r="J39" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L39" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M39" s="16">
         <v>14.7</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="16">
         <v>902</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="16">
         <v>246.2</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="18">
         <v>44305</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="16">
         <v>35.823683000000003</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="16">
         <v>-113.64790600000001</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L40" s="16">
+      <c r="J40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L40" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="N40" s="13">
+      <c r="M40" s="16"/>
+      <c r="N40" s="16">
         <v>679</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="16">
         <v>274.89999999999998</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="18">
         <v>44306</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="16">
         <v>36.095858</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="16">
         <v>-113.920815</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K41" t="s">
-        <v>163</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="J41" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="16">
         <v>274.89999999999998</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="18">
         <v>44306</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="16">
         <v>36.095630999999997</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="16">
         <v>-113.921228</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42" s="7">
+      <c r="J42" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L42" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="16">
         <v>17.899999999999999</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="16">
         <v>701</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="16">
         <v>8</v>
       </c>
+      <c r="P42" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
@@ -33089,7 +33242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7167173B-D17B-CB45-8AE6-DDC8C80E2F67}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E48" sqref="E29:E48"/>
     </sheetView>
   </sheetViews>
@@ -34077,6 +34230,4202 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4651FE37-EBB7-FE41-BDBC-F357487129BE}">
+  <dimension ref="A1:Q100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="16">
+        <v>88.1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H2" s="16">
+        <v>36.100304999999999</v>
+      </c>
+      <c r="I2" s="16">
+        <v>-112.091992</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="16">
+        <v>88.1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H3" s="16">
+        <v>36.100304999999999</v>
+      </c>
+      <c r="I3" s="16">
+        <v>-112.091992</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="16">
+        <v>97.1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H4" s="16">
+        <v>36.115372000000001</v>
+      </c>
+      <c r="I4" s="23">
+        <v>-112.231348</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M4" s="16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O4" s="16">
+        <v>790</v>
+      </c>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="16">
+        <v>97.1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H5" s="16">
+        <v>36.115372000000001</v>
+      </c>
+      <c r="I5" s="23">
+        <v>-112.231348</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M5" s="16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O5" s="16">
+        <v>790</v>
+      </c>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18">
+        <v>44282</v>
+      </c>
+      <c r="H6" s="16">
+        <v>34.346649999999997</v>
+      </c>
+      <c r="I6" s="16">
+        <v>-111.69699</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18">
+        <v>44282</v>
+      </c>
+      <c r="H7" s="16">
+        <v>34.346649999999997</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-111.69699</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="16">
+        <v>84.7</v>
+      </c>
+      <c r="G8" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H8" s="16">
+        <v>36.082434999999997</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-112.035736</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="16">
+        <v>84.7</v>
+      </c>
+      <c r="G9" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H9" s="16">
+        <v>36.082434999999997</v>
+      </c>
+      <c r="I9" s="16">
+        <v>-112.035736</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="16">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G10" s="18">
+        <v>44306</v>
+      </c>
+      <c r="H10" s="16">
+        <v>36.095630999999997</v>
+      </c>
+      <c r="I10" s="16">
+        <v>-113.921228</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M10" s="16">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N10" s="16">
+        <v>701</v>
+      </c>
+      <c r="O10" s="16">
+        <v>8</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F11" s="16">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G11" s="18">
+        <v>44306</v>
+      </c>
+      <c r="H11" s="16">
+        <v>36.095630999999997</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-113.921228</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M11" s="16">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N11" s="16">
+        <v>701</v>
+      </c>
+      <c r="O11" s="16">
+        <v>8</v>
+      </c>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="16">
+        <v>109.2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H12" s="16">
+        <v>36.237012</v>
+      </c>
+      <c r="I12" s="23">
+        <v>-112.348043</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="16">
+        <v>109.2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H13" s="16">
+        <v>36.237012</v>
+      </c>
+      <c r="I13" s="23">
+        <v>-112.348043</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="F14" s="16">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="G14" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H14" s="23">
+        <v>36.370539999999998</v>
+      </c>
+      <c r="I14" s="23">
+        <v>-112.468861</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="F15" s="16">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="G15" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H15" s="23">
+        <v>36.370539999999998</v>
+      </c>
+      <c r="I15" s="23">
+        <v>-112.468861</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="16">
+        <v>143.9</v>
+      </c>
+      <c r="G16" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H16" s="23">
+        <v>36.391506</v>
+      </c>
+      <c r="I16" s="23">
+        <v>-112.629231</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="16">
+        <v>143.9</v>
+      </c>
+      <c r="G17" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H17" s="23">
+        <v>36.391506</v>
+      </c>
+      <c r="I17" s="23">
+        <v>-112.629231</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" s="16">
+        <v>148.4</v>
+      </c>
+      <c r="G18" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H18" s="23">
+        <v>36.343699000000001</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-112.674443</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="16">
+        <v>148.4</v>
+      </c>
+      <c r="G19" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H19" s="23">
+        <v>36.343699000000001</v>
+      </c>
+      <c r="I19" s="23">
+        <v>-112.674443</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="16">
+        <v>157.1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H20" s="23">
+        <v>36.308889999999998</v>
+      </c>
+      <c r="I20" s="23">
+        <v>-112.76296600000001</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="16">
+        <v>157.1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H21" s="23">
+        <v>36.308889999999998</v>
+      </c>
+      <c r="I21" s="23">
+        <v>-112.76296600000001</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" t="s">
+        <v>523</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="16">
+        <v>179.9</v>
+      </c>
+      <c r="G22" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H22" s="23">
+        <v>36.196154</v>
+      </c>
+      <c r="I22" s="23">
+        <v>-113.086461</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" s="16">
+        <v>179.9</v>
+      </c>
+      <c r="G23" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H23" s="23">
+        <v>36.196154</v>
+      </c>
+      <c r="I23" s="23">
+        <v>-113.086461</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" s="16">
+        <v>204.6</v>
+      </c>
+      <c r="G24" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H24" s="23">
+        <v>36.019364000000003</v>
+      </c>
+      <c r="I24" s="23">
+        <v>-113.350139</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F25" s="16">
+        <v>204.6</v>
+      </c>
+      <c r="G25" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H25" s="23">
+        <v>36.019364000000003</v>
+      </c>
+      <c r="I25" s="23">
+        <v>-113.350139</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" t="s">
+        <v>525</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="16">
+        <v>216</v>
+      </c>
+      <c r="G26" s="18">
+        <v>44304</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" t="s">
+        <v>525</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F27" s="16">
+        <v>216</v>
+      </c>
+      <c r="G27" s="18">
+        <v>44304</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="16">
+        <v>225.9</v>
+      </c>
+      <c r="G28" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H28" s="16">
+        <v>35.766888000000002</v>
+      </c>
+      <c r="I28" s="16">
+        <v>-113.372191</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" t="s">
+        <v>519</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29" s="16">
+        <v>225.9</v>
+      </c>
+      <c r="G29" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H29" s="16">
+        <v>35.766888000000002</v>
+      </c>
+      <c r="I29" s="16">
+        <v>-113.372191</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="16">
+        <v>229.3</v>
+      </c>
+      <c r="G30" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H30" s="16">
+        <v>35.751103999999998</v>
+      </c>
+      <c r="I30" s="16">
+        <v>-113.424109</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M30" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="N30" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="O30" s="16">
+        <v>906</v>
+      </c>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" s="16">
+        <v>229.3</v>
+      </c>
+      <c r="G31" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H31" s="16">
+        <v>35.751103999999998</v>
+      </c>
+      <c r="I31" s="16">
+        <v>-113.424109</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M31" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="N31" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="O31" s="16">
+        <v>906</v>
+      </c>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" t="s">
+        <v>527</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="16">
+        <v>246.2</v>
+      </c>
+      <c r="G32" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H32" s="16">
+        <v>35.823433000000001</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-113.64673000000001</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M32" s="16">
+        <v>14.7</v>
+      </c>
+      <c r="N32" s="16">
+        <v>902</v>
+      </c>
+      <c r="O32" s="16">
+        <v>7</v>
+      </c>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>527</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="F33" s="16">
+        <v>246.2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H33" s="16">
+        <v>35.823433000000001</v>
+      </c>
+      <c r="I33" s="16">
+        <v>-113.64673000000001</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M33" s="16">
+        <v>14.7</v>
+      </c>
+      <c r="N33" s="16">
+        <v>902</v>
+      </c>
+      <c r="O33" s="16">
+        <v>7</v>
+      </c>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
+        <v>502</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F34" s="16">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G34" s="18">
+        <v>44306</v>
+      </c>
+      <c r="H34" s="16">
+        <v>36.095858</v>
+      </c>
+      <c r="I34" s="16">
+        <v>-113.920815</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="16">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G35" s="18">
+        <v>44306</v>
+      </c>
+      <c r="H35" s="16">
+        <v>36.095858</v>
+      </c>
+      <c r="I35" s="16">
+        <v>-113.920815</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="G36" s="22">
+        <v>44297</v>
+      </c>
+      <c r="H36" s="16">
+        <v>36.307026</v>
+      </c>
+      <c r="I36" s="16">
+        <v>-111.857844</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" t="s">
+        <v>520</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="G37" s="22">
+        <v>44297</v>
+      </c>
+      <c r="H37" s="16">
+        <v>36.307026</v>
+      </c>
+      <c r="I37" s="16">
+        <v>-111.857844</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="G38" s="18">
+        <v>44298</v>
+      </c>
+      <c r="H38" s="16">
+        <v>36.195366</v>
+      </c>
+      <c r="I38" s="16">
+        <v>-111.799632</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" t="s">
+        <v>522</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="G39" s="18">
+        <v>44298</v>
+      </c>
+      <c r="H39" s="16">
+        <v>36.195366</v>
+      </c>
+      <c r="I39" s="16">
+        <v>-111.799632</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L39" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="16">
+        <v>84.7</v>
+      </c>
+      <c r="G40" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H40" s="16">
+        <v>36.081918999999999</v>
+      </c>
+      <c r="I40" s="16">
+        <v>-112.036006</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L40" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="16">
+        <v>84.7</v>
+      </c>
+      <c r="G41" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H41" s="16">
+        <v>36.081918999999999</v>
+      </c>
+      <c r="I41" s="16">
+        <v>-112.036006</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="16">
+        <v>94.5</v>
+      </c>
+      <c r="G42" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H42" s="16">
+        <v>36.099469999999997</v>
+      </c>
+      <c r="I42" s="23">
+        <v>-112.20886900000001</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L42" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="16">
+        <v>94.5</v>
+      </c>
+      <c r="G43" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H43" s="16">
+        <v>36.099469999999997</v>
+      </c>
+      <c r="I43" s="23">
+        <v>-112.20886900000001</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="16">
+        <v>97.2</v>
+      </c>
+      <c r="G44" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H44" s="16">
+        <v>36.114659000000003</v>
+      </c>
+      <c r="I44" s="23">
+        <v>-112.230352</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L44" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="16">
+        <v>97.2</v>
+      </c>
+      <c r="G45" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H45" s="16">
+        <v>36.114659000000003</v>
+      </c>
+      <c r="I45" s="23">
+        <v>-112.230352</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L45" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" s="16">
+        <v>225.9</v>
+      </c>
+      <c r="G46" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H46" s="16">
+        <v>35.765225000000001</v>
+      </c>
+      <c r="I46" s="16">
+        <v>-113.37134399999999</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M46" s="19">
+        <v>17</v>
+      </c>
+      <c r="N46" s="16">
+        <v>842</v>
+      </c>
+      <c r="O46" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F47" s="16">
+        <v>225.9</v>
+      </c>
+      <c r="G47" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H47" s="16">
+        <v>35.765225000000001</v>
+      </c>
+      <c r="I47" s="16">
+        <v>-113.37134399999999</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M47" s="19">
+        <v>17</v>
+      </c>
+      <c r="N47" s="16">
+        <v>842</v>
+      </c>
+      <c r="O47" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="18">
+        <v>44283</v>
+      </c>
+      <c r="H48" s="16">
+        <v>34.410530000000001</v>
+      </c>
+      <c r="I48" s="16">
+        <v>-111.60732</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="18">
+        <v>44283</v>
+      </c>
+      <c r="H49" s="16">
+        <v>34.410530000000001</v>
+      </c>
+      <c r="I49" s="16">
+        <v>-111.60732</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="16">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="G50" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H50" s="23">
+        <v>36.306596999999996</v>
+      </c>
+      <c r="I50" s="23">
+        <v>-112.761515</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D51" t="s">
+        <v>362</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" s="16">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="G51" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H51" s="23">
+        <v>36.306596999999996</v>
+      </c>
+      <c r="I51" s="23">
+        <v>-112.761515</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L51" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="16">
+        <v>94.5</v>
+      </c>
+      <c r="G52" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H52" s="16">
+        <v>36.098798000000002</v>
+      </c>
+      <c r="I52" s="23">
+        <v>-112.20999500000001</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L52" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="16">
+        <v>94.5</v>
+      </c>
+      <c r="G53" s="18">
+        <v>44300</v>
+      </c>
+      <c r="H53" s="16">
+        <v>36.098798000000002</v>
+      </c>
+      <c r="I53" s="23">
+        <v>-112.20999500000001</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="16">
+        <v>144</v>
+      </c>
+      <c r="G54" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H54" s="23">
+        <v>36.392344000000001</v>
+      </c>
+      <c r="I54" s="23">
+        <v>-112.632828</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M54" s="16">
+        <v>18.3</v>
+      </c>
+      <c r="N54" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O54" s="16">
+        <v>1244</v>
+      </c>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="16">
+        <v>144</v>
+      </c>
+      <c r="G55" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H55" s="23">
+        <v>36.392344000000001</v>
+      </c>
+      <c r="I55" s="23">
+        <v>-112.632828</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M55" s="16">
+        <v>18.3</v>
+      </c>
+      <c r="N55" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O55" s="16">
+        <v>1244</v>
+      </c>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="G56" s="18">
+        <v>44298</v>
+      </c>
+      <c r="H56" s="16">
+        <v>36.190340999999997</v>
+      </c>
+      <c r="I56" s="16">
+        <v>-111.795906</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="G57" s="18">
+        <v>44298</v>
+      </c>
+      <c r="H57" s="16">
+        <v>36.190340999999997</v>
+      </c>
+      <c r="I57" s="16">
+        <v>-111.795906</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" s="16">
+        <v>179.7</v>
+      </c>
+      <c r="G58" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H58" s="23">
+        <v>36.196297000000001</v>
+      </c>
+      <c r="I58" s="23">
+        <v>-113.084915</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M58" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="N58" s="16">
+        <v>7</v>
+      </c>
+      <c r="O58" s="16">
+        <v>999</v>
+      </c>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" s="16">
+        <v>179.7</v>
+      </c>
+      <c r="G59" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H59" s="23">
+        <v>36.196297000000001</v>
+      </c>
+      <c r="I59" s="23">
+        <v>-113.084915</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M59" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="N59" s="16">
+        <v>7</v>
+      </c>
+      <c r="O59" s="16">
+        <v>999</v>
+      </c>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="16">
+        <v>148.4</v>
+      </c>
+      <c r="G60" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H60" s="23">
+        <v>36.343699000000001</v>
+      </c>
+      <c r="I60" s="23">
+        <v>-112.674443</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16">
+        <v>13.1</v>
+      </c>
+      <c r="N60" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O60" s="16">
+        <v>1507</v>
+      </c>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F61" s="16">
+        <v>148.4</v>
+      </c>
+      <c r="G61" s="18">
+        <v>44302</v>
+      </c>
+      <c r="H61" s="23">
+        <v>36.343699000000001</v>
+      </c>
+      <c r="I61" s="23">
+        <v>-112.674443</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16">
+        <v>13.1</v>
+      </c>
+      <c r="N61" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O61" s="16">
+        <v>1507</v>
+      </c>
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="G62" s="22">
+        <v>44297</v>
+      </c>
+      <c r="H62" s="16">
+        <v>36.306781999999998</v>
+      </c>
+      <c r="I62" s="16">
+        <v>-111.85848</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="G63" s="22">
+        <v>44297</v>
+      </c>
+      <c r="H63" s="16">
+        <v>36.306781999999998</v>
+      </c>
+      <c r="I63" s="16">
+        <v>-111.85848</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L63" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F64" s="16">
+        <v>20.7</v>
+      </c>
+      <c r="G64" s="18">
+        <v>44296</v>
+      </c>
+      <c r="H64" s="16">
+        <v>36.630398</v>
+      </c>
+      <c r="I64" s="16">
+        <v>-111.763992</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L64" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M64" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="N64" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O64" s="16">
+        <v>806</v>
+      </c>
+      <c r="P64" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F65" s="16">
+        <v>20.7</v>
+      </c>
+      <c r="G65" s="18">
+        <v>44296</v>
+      </c>
+      <c r="H65" s="16">
+        <v>36.630398</v>
+      </c>
+      <c r="I65" s="16">
+        <v>-111.763992</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M65" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="N65" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O65" s="16">
+        <v>806</v>
+      </c>
+      <c r="P65" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="F66" s="16">
+        <v>88.2</v>
+      </c>
+      <c r="G66" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H66" s="16">
+        <v>36.100451999999997</v>
+      </c>
+      <c r="I66" s="16">
+        <v>-112.090951</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L66" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="F67" s="16">
+        <v>88.2</v>
+      </c>
+      <c r="G67" s="18">
+        <v>44299</v>
+      </c>
+      <c r="H67" s="16">
+        <v>36.100451999999997</v>
+      </c>
+      <c r="I67" s="16">
+        <v>-112.090951</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="16">
+        <v>204.6</v>
+      </c>
+      <c r="G68" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H68" s="23">
+        <v>36.018689000000002</v>
+      </c>
+      <c r="I68" s="23">
+        <v>-113.351472</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L68" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M68" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="N68" s="16">
+        <v>8</v>
+      </c>
+      <c r="O68" s="16">
+        <v>589</v>
+      </c>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="18">
+        <v>44277</v>
+      </c>
+      <c r="H69" s="16">
+        <v>34.869959999999999</v>
+      </c>
+      <c r="I69" s="16">
+        <v>-112.06938</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M69" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="16">
+        <v>204.6</v>
+      </c>
+      <c r="G70" s="18">
+        <v>44303</v>
+      </c>
+      <c r="H70" s="23">
+        <v>36.018689000000002</v>
+      </c>
+      <c r="I70" s="23">
+        <v>-113.351472</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L70" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M70" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="N70" s="16">
+        <v>8</v>
+      </c>
+      <c r="O70" s="16">
+        <v>589</v>
+      </c>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="18">
+        <v>44277</v>
+      </c>
+      <c r="H71" s="16">
+        <v>34.869959999999999</v>
+      </c>
+      <c r="I71" s="16">
+        <v>-112.06938</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M71" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="16">
+        <v>109.2</v>
+      </c>
+      <c r="G72" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H72" s="16">
+        <v>36.237662999999998</v>
+      </c>
+      <c r="I72" s="23">
+        <v>-112.349253</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L72" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="16">
+        <v>109.2</v>
+      </c>
+      <c r="G73" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H73" s="16">
+        <v>36.237662999999998</v>
+      </c>
+      <c r="I73" s="23">
+        <v>-112.349253</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L73" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" t="s">
+        <v>474</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F74" s="16">
+        <v>246.2</v>
+      </c>
+      <c r="G74" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H74" s="16">
+        <v>35.823683000000003</v>
+      </c>
+      <c r="I74" s="16">
+        <v>-113.64790600000001</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L74" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16">
+        <v>679</v>
+      </c>
+      <c r="O74" s="16">
+        <v>8</v>
+      </c>
+      <c r="P74" s="16"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" t="s">
+        <v>474</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F75" s="16">
+        <v>246.2</v>
+      </c>
+      <c r="G75" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H75" s="16">
+        <v>35.823683000000003</v>
+      </c>
+      <c r="I75" s="16">
+        <v>-113.64790600000001</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L75" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16">
+        <v>679</v>
+      </c>
+      <c r="O75" s="16">
+        <v>8</v>
+      </c>
+      <c r="P75" s="16"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F76" s="16">
+        <v>134.4</v>
+      </c>
+      <c r="G76" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H76" s="16">
+        <v>36.371082000000001</v>
+      </c>
+      <c r="I76" s="23">
+        <v>-112.469666</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L76" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M76" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="N76" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O76" s="16">
+        <v>327</v>
+      </c>
+      <c r="P76" s="16"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="16">
+        <v>134.4</v>
+      </c>
+      <c r="G77" s="18">
+        <v>44301</v>
+      </c>
+      <c r="H77" s="16">
+        <v>36.371082000000001</v>
+      </c>
+      <c r="I77" s="23">
+        <v>-112.469666</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L77" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M77" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="N77" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O77" s="16">
+        <v>327</v>
+      </c>
+      <c r="P77" s="16"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="18">
+        <v>44286</v>
+      </c>
+      <c r="H78" s="16">
+        <v>34.091749999999998</v>
+      </c>
+      <c r="I78" s="16">
+        <v>-111.73124</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" s="20">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="N78" s="16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O78" s="16">
+        <v>7</v>
+      </c>
+      <c r="P78" s="16">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="18">
+        <v>44286</v>
+      </c>
+      <c r="H79" s="16">
+        <v>34.091749999999998</v>
+      </c>
+      <c r="I79" s="16">
+        <v>-111.73124</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="20">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="N79" s="16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O79" s="16">
+        <v>7</v>
+      </c>
+      <c r="P79" s="16">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D80" t="s">
+        <v>456</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" s="16">
+        <v>229.3</v>
+      </c>
+      <c r="G80" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H80" s="16">
+        <v>35.750768999999998</v>
+      </c>
+      <c r="I80" s="16">
+        <v>-113.42432100000001</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L80" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M80" s="16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N80" s="16">
+        <v>8</v>
+      </c>
+      <c r="O80" s="16">
+        <v>950</v>
+      </c>
+      <c r="P80" s="16"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D81" t="s">
+        <v>456</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F81" s="16">
+        <v>229.3</v>
+      </c>
+      <c r="G81" s="18">
+        <v>44305</v>
+      </c>
+      <c r="H81" s="16">
+        <v>35.750768999999998</v>
+      </c>
+      <c r="I81" s="16">
+        <v>-113.42432100000001</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L81" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M81" s="16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N81" s="16">
+        <v>8</v>
+      </c>
+      <c r="O81" s="16">
+        <v>950</v>
+      </c>
+      <c r="P81" s="16"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="16">
+        <v>216</v>
+      </c>
+      <c r="G82" s="18">
+        <v>44304</v>
+      </c>
+      <c r="H82" s="23">
+        <v>35.885708000000001</v>
+      </c>
+      <c r="I82" s="23">
+        <v>-113.308258</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L82" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M82" s="16">
+        <v>20.6</v>
+      </c>
+      <c r="N82" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O82" s="16">
+        <v>737</v>
+      </c>
+      <c r="P82" s="16"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D83" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F83" s="16">
+        <v>216</v>
+      </c>
+      <c r="G83" s="18">
+        <v>44304</v>
+      </c>
+      <c r="H83" s="23">
+        <v>35.885708000000001</v>
+      </c>
+      <c r="I83" s="23">
+        <v>-113.308258</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L83" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M83" s="16">
+        <v>20.6</v>
+      </c>
+      <c r="N83" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="O83" s="16">
+        <v>737</v>
+      </c>
+      <c r="P83" s="16"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="18">
+        <v>44284</v>
+      </c>
+      <c r="H84" s="16">
+        <v>34.480080999999998</v>
+      </c>
+      <c r="I84" s="16">
+        <v>-111.81175</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M84" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="18">
+        <v>44284</v>
+      </c>
+      <c r="H85" s="16">
+        <v>34.480080999999998</v>
+      </c>
+      <c r="I85" s="16">
+        <v>-111.81175</v>
+      </c>
+      <c r="J85" s="16"/>
+      <c r="K85" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="18">
+        <v>44285</v>
+      </c>
+      <c r="H86" s="16">
+        <v>34.077939999999998</v>
+      </c>
+      <c r="I86" s="16">
+        <v>-111.70538000000001</v>
+      </c>
+      <c r="J86" s="16"/>
+      <c r="K86" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="18">
+        <v>44285</v>
+      </c>
+      <c r="H87" s="16">
+        <v>34.077939999999998</v>
+      </c>
+      <c r="I87" s="16">
+        <v>-111.70538000000001</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="18">
+        <v>44282</v>
+      </c>
+      <c r="H88" s="16">
+        <v>34.669960000000003</v>
+      </c>
+      <c r="I88" s="16">
+        <v>-111.71253</v>
+      </c>
+      <c r="J88" s="16"/>
+      <c r="K88" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M88" s="20">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="18">
+        <v>44282</v>
+      </c>
+      <c r="H89" s="16">
+        <v>34.669960000000003</v>
+      </c>
+      <c r="I89" s="16">
+        <v>-111.71253</v>
+      </c>
+      <c r="J89" s="16"/>
+      <c r="K89" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M89" s="20">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="18">
+        <v>44276</v>
+      </c>
+      <c r="H90" s="16">
+        <v>34.532780000000002</v>
+      </c>
+      <c r="I90" s="16">
+        <v>-111.66924</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M90" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="18">
+        <v>44276</v>
+      </c>
+      <c r="H91" s="16">
+        <v>34.532780000000002</v>
+      </c>
+      <c r="I91" s="16">
+        <v>-111.66924</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="K91" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M91" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="18">
+        <v>44278</v>
+      </c>
+      <c r="H92" s="16">
+        <v>34.996409999999997</v>
+      </c>
+      <c r="I92" s="16">
+        <v>-111.75326</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M92" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="16"/>
+      <c r="G93" s="18">
+        <v>44278</v>
+      </c>
+      <c r="H93" s="16">
+        <v>34.996409999999997</v>
+      </c>
+      <c r="I93" s="16">
+        <v>-111.75326</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M93" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P104">
+    <sortCondition ref="E1:E104"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A50A784-1FF7-FE41-A955-34FF81F62354}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -36759,12 +41108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0AE359-4CEE-2341-BDD7-8D1E44EBEBF7}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36833,326 +41182,377 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="17">
+      <c r="F2" s="16"/>
+      <c r="G2" s="18">
         <v>44276</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="16">
         <v>34.532780000000002</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="16">
         <v>-111.66924</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="16"/>
+      <c r="G3" s="18">
         <v>44277</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <v>34.869959999999999</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>-112.06938</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="16"/>
+      <c r="G4" s="18">
         <v>44278</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
         <v>34.996409999999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="16">
         <v>-111.75326</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="16"/>
+      <c r="G5" s="18">
         <v>44282</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
         <v>34.669960000000003</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="16">
         <v>-111.71253</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="20">
         <v>5.5555555555555558E-3</v>
       </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="17">
+      <c r="F6" s="16"/>
+      <c r="G6" s="18">
         <v>44282</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="16">
         <v>34.346649999999997</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="16">
         <v>-111.69699</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="20">
         <v>6.2499999999999995E-3</v>
       </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="17">
+      <c r="F7" s="16"/>
+      <c r="G7" s="18">
         <v>44283</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="16">
         <v>34.410530000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="16">
         <v>-111.60732</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="17">
+      <c r="F8" s="16"/>
+      <c r="G8" s="18">
         <v>44284</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="16">
         <v>34.480080999999998</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="16">
         <v>-111.81175</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="17">
+      <c r="F9" s="16"/>
+      <c r="G9" s="18">
         <v>44285</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="16">
         <v>34.077939999999998</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="16">
         <v>-111.70538000000001</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>92</v>
       </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="17">
+      <c r="F10" s="16"/>
+      <c r="G10" s="18">
         <v>44286</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="16">
         <v>34.091749999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="16">
         <v>-111.73124</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="20">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="16">
         <v>19.600000000000001</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="16">
         <v>7</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="16">
         <v>686</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="16">
         <v>8</v>
       </c>
     </row>
